--- a/Complexity.xlsx
+++ b/Complexity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="20380" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2x2 Grid" sheetId="6" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="4x4 Grid" sheetId="2" r:id="rId5"/>
     <sheet name="4x4 Complexity" sheetId="4" r:id="rId6"/>
     <sheet name="5x5 Grid" sheetId="12" r:id="rId7"/>
-    <sheet name="Space vs Time Complexity (4x4)" sheetId="8" r:id="rId8"/>
-    <sheet name="BFS Complexity" sheetId="9" r:id="rId9"/>
-    <sheet name="DFS Complexity" sheetId="10" r:id="rId10"/>
-    <sheet name="IDS Complexity" sheetId="11" r:id="rId11"/>
-    <sheet name="A Star Complexity" sheetId="13" r:id="rId12"/>
+    <sheet name="5x5 Complexity" sheetId="14" r:id="rId8"/>
+    <sheet name="Space vs Time Complexity (4x4)" sheetId="8" r:id="rId9"/>
+    <sheet name="BFS Complexity" sheetId="9" r:id="rId10"/>
+    <sheet name="DFS Complexity" sheetId="10" r:id="rId11"/>
+    <sheet name="IDS Complexity" sheetId="11" r:id="rId12"/>
+    <sheet name="A Star Complexity" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -141,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,11 +155,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1188,6 +1202,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2101,6 +2116,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3110,6 +3126,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3223,6 +3240,1106 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5x5 Grid, Complexity vs Nodes Evaluated</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5x5 Grid'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2483.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10926.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20599.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46593.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85686.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>628835.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.543548E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.946663E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5x5 Grid'!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.604225E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.167537E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.695415E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>583206.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.093964E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>697404.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>471799.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254939.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.410291E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.034449E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.558381E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>864043.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.291479E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.153582E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.477998E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5x5 Grid'!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>IDS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14342.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37453.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161153.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>208258.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>941891.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.99771E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.214322E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8705484E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.972435E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5x5 Grid'!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Evaluations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5x5 Grid'!$I$3:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2730.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4457.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5641.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9670.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28451.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153215.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>346792.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.237322E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.653663E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.976092E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353951488"/>
+        <c:axId val="386560288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="353951488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Complexity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Optimal Solution Length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386560288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386560288"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Complexity (Nodes Evaluated)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353951488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4354,7 +5471,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4491,54 +5608,1146 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Space vs Time Complexity (4x4)'!$C$3:$C$8</c:f>
+              <c:f>'Space vs Time Complexity (4x4)'!$C$3:$C$191</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="189"/>
                 <c:pt idx="0">
-                  <c:v>2766.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15459.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33489.0</c:v>
+                  <c:v>311.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49812.0</c:v>
+                  <c:v>1820.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68246.0</c:v>
+                  <c:v>4515.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85650.0</c:v>
+                  <c:v>7975.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11921.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17399.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23783.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30657.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42531.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59837.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76681.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94041.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111701.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118136.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136738.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157428.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>178522.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199917.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>223579.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>246606.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>259577.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>269628.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280116.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290626.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301216.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>312359.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324321.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336305.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>347829.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>359714.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>376326.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>399535.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>422561.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>441877.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460348.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>478123.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>496451.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>514537.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>533167.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>543898.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>564701.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>582559.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>596154.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>609345.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>622642.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>635851.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>653504.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>676759.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>700381.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>723467.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>746976.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>770150.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>794172.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>817815.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>831843.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>842352.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>852764.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>863190.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>873902.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>884441.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>895115.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>906754.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>929256.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>952490.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>975879.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>999600.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.022799E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.046394E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.070554E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.09415E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.117642E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.140922E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.162156E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.18103E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.199409E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.218012E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.236583E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.255161E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.273768E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.292372E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.311009E6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.329708E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.348474E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.366928E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.385598E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.395545E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.406223E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.416788E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.427452E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.438109E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.448569E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.458805E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.469297E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.479866E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.492444E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.515601E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.538241E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.561122E6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.584486E6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.607631E6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.631024E6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.654267E6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.67772E6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.701541E6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.724893E6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.747994E6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.770869E6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.794026E6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.817401E6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.840703E6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.859896E6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.883073E6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.905906E6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.928277E6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.951419E6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.960183E6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.977917E6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.995902E6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.013037E6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.030379E6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.050169E6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.072619E6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.095537E6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.118052E6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.140698E6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.164241E6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.187304E6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.210511E6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.233553E6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.257179E6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.279983E6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.303107E6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.326167E6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.349571E6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.372797E6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.395952E6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.419492E6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.442758E6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.466096E6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.488973E6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.511857E6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.534429E6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.557455E6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.580267E6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.598814E6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.616705E6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.634491E6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.65277E6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.671086E6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.68715E6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.706818E6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.726529E6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.744417E6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.75472E6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.765223E6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.775573E6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.786069E6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.799751E6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.82324E6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.846472E6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.869409E6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.892485E6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.915131E6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.938679E6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.962062E6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.985022E6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.008036E6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.03098E6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.054154E6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.077487E6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.100687E6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.123758E6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.146927E6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.169901E6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.192702E6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.215673E6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.239022E6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.261732E6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.284942E6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.308131E6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.331622E6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.354755E6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.37798E6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.401309E6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.423338E6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.441401E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Space vs Time Complexity (4x4)'!$D$3:$D$8</c:f>
+              <c:f>'Space vs Time Complexity (4x4)'!$D$3:$D$191</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="189"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.0</c:v>
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>729.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>807.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>944.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1080.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1138.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1216.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>614.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>752.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>792.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1109.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1188.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1267.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1346.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1445.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>991.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1091.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1171.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1251.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1331.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1411.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1531.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1611.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1691.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1771.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1851.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1931.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1971.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2052.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2132.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2172.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2252.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2332.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2372.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2452.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2532.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2572.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2652.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2732.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1190.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1190.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1230.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1270.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1310.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1351.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1391.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1431.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1471.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1511.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1592.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1672.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1753.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1833.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1913.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2074.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2195.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2275.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2355.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2436.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2516.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2596.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2677.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2757.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2878.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2958.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3038.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3119.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3196.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1697.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1748.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1799.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1851.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1902.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2055.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2158.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2260.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2311.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2413.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2465.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2567.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2669.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2720.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2823.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2874.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2976.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3079.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3130.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3232.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3335.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3386.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3488.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3539.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3642.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3744.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3795.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3897.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3949.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4051.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4153.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4204.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2299.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2366.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2433.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2499.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2499.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2566.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2566.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2632.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2699.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2766.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2832.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2899.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2965.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3099.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3165.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3232.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3298.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3432.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3498.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3565.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3631.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3764.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3831.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3898.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3964.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4031.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4164.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4231.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4297.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4364.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4497.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4564.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4630.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4697.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4830.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4897.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,6 +6769,7 @@
         <c:axId val="358662144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.5E6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4692,7 +6902,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
+          <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
             <c:layout/>
             <c:spPr>
@@ -4729,6 +6939,7 @@
         <c:axId val="355725840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4934,7 +7145,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6635,7 +8846,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -10533,6 +12744,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14184,11 +16435,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -14200,7 +16967,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -14212,7 +16979,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -14226,8 +16993,7 @@
   <sheetViews>
     <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -14257,6 +17023,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -14353,7 +17131,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9814320" cy="6064438"/>
+    <xdr:ext cx="9303314" cy="6064438"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14431,6 +17209,33 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9814320" cy="6064438"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -15900,10 +18705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15976,12 +18781,24 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2604225</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2604225</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
       <c r="I3" s="2">
         <v>2</v>
       </c>
@@ -15996,12 +18813,24 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2167537</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2167537</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
       <c r="I4" s="2">
         <v>4</v>
       </c>
@@ -16016,12 +18845,24 @@
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="2">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2695415</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2695415</v>
+      </c>
+      <c r="G5" s="2">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
       <c r="I5" s="2">
         <v>6</v>
       </c>
@@ -16036,12 +18877,24 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="2">
+        <v>159</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>583206</v>
+      </c>
+      <c r="F6" s="2">
+        <v>583206</v>
+      </c>
+      <c r="G6" s="2">
+        <v>184</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
       <c r="I6" s="2">
         <v>17</v>
       </c>
@@ -16056,12 +18909,24 @@
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="2">
+        <v>927</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2093964</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2093964</v>
+      </c>
+      <c r="G7" s="2">
+        <v>698</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="2">
         <v>16</v>
       </c>
@@ -16076,12 +18941,24 @@
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="C8" s="2">
+        <v>2483</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>697404</v>
+      </c>
+      <c r="F8" s="2">
+        <v>697404</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2028</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
       <c r="I8" s="2">
         <v>24</v>
       </c>
@@ -16096,14 +18973,26 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="C9" s="2">
+        <v>10926</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>471799</v>
+      </c>
+      <c r="F9" s="2">
+        <v>471799</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14342</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
       <c r="I9" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2">
         <v>7</v>
@@ -16116,14 +19005,26 @@
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="2">
+        <v>20599</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>254939</v>
+      </c>
+      <c r="F10" s="2">
+        <v>254939</v>
+      </c>
+      <c r="G10" s="2">
+        <v>37453</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
       <c r="I10" s="2">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
         <v>8</v>
@@ -16136,12 +19037,24 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C11" s="2">
+        <v>46593</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8410291</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8410291</v>
+      </c>
+      <c r="G11" s="2">
+        <v>161153</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9</v>
+      </c>
       <c r="I11" s="2">
         <v>167</v>
       </c>
@@ -16156,12 +19069,24 @@
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="2">
+        <v>85686</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8034449</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8034449</v>
+      </c>
+      <c r="G12" s="2">
+        <v>208258</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
       <c r="I12" s="2">
         <v>220</v>
       </c>
@@ -16176,12 +19101,24 @@
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="2">
+        <v>628835</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2558381</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2558381</v>
+      </c>
+      <c r="G13" s="2">
+        <v>941891</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
       <c r="I13" s="2">
         <v>526</v>
       </c>
@@ -16196,14 +19133,26 @@
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>4457</v>
+      <c r="C14" s="5">
+        <v>2543548</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>864043</v>
+      </c>
+      <c r="F14" s="2">
+        <v>864043</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3997710</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2730</v>
       </c>
       <c r="J14" s="2">
         <v>12</v>
@@ -16216,14 +19165,26 @@
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="2">
+        <v>3946663</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4291479</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4291479</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8214322</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
       <c r="I15" s="2">
-        <v>5641</v>
+        <v>4457</v>
       </c>
       <c r="J15" s="2">
         <v>13</v>
@@ -16238,64 +19199,178 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>2153582</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2153582</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18705484</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
       <c r="I16" s="2">
-        <v>9670</v>
+        <v>5641</v>
       </c>
       <c r="J16" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I17" s="5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>3477998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3477998</v>
+      </c>
+      <c r="G17" s="2">
+        <v>69724350</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>9670</v>
+      </c>
+      <c r="J17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6">
         <v>28451</v>
       </c>
-      <c r="J17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I18" s="5">
+      <c r="J18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6">
         <v>153215</v>
       </c>
-      <c r="J18" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I19" s="5">
+      <c r="J19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6">
         <v>346792</v>
       </c>
-      <c r="J19" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I20" s="5">
+      <c r="J20" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6">
         <v>2237322</v>
       </c>
-      <c r="J20" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I21" s="5">
+      <c r="J21" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6">
         <v>2653663</v>
       </c>
-      <c r="J21" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I22" s="5">
+      <c r="J22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="6">
         <v>3976092</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="6">
         <v>21</v>
       </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16315,7 +19390,7 @@
   <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H518"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16382,10 +19457,10 @@
         <v>58</v>
       </c>
       <c r="C3">
-        <v>2766</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>9773</v>
@@ -16408,10 +19483,10 @@
         <v>77</v>
       </c>
       <c r="C4">
-        <v>15459</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>27730</v>
@@ -16434,10 +19509,10 @@
         <v>130</v>
       </c>
       <c r="C5">
-        <v>33489</v>
+        <v>311</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>45070</v>
@@ -16460,10 +19535,10 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>49812</v>
+        <v>1820</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>65376</v>
@@ -16486,10 +19561,10 @@
         <v>167</v>
       </c>
       <c r="C7">
-        <v>68246</v>
+        <v>4515</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>91404</v>
@@ -16512,10 +19587,10 @@
         <v>331</v>
       </c>
       <c r="C8">
-        <v>85650</v>
+        <v>7975</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>120941</v>
@@ -16537,6 +19612,12 @@
       <c r="B9">
         <v>286</v>
       </c>
+      <c r="C9">
+        <v>11921</v>
+      </c>
+      <c r="D9">
+        <v>112</v>
+      </c>
       <c r="E9">
         <v>156072</v>
       </c>
@@ -16557,6 +19638,12 @@
       <c r="B10">
         <v>282</v>
       </c>
+      <c r="C10">
+        <v>17399</v>
+      </c>
+      <c r="D10">
+        <v>133</v>
+      </c>
       <c r="E10">
         <v>198300</v>
       </c>
@@ -16577,6 +19664,12 @@
       <c r="B11">
         <v>462</v>
       </c>
+      <c r="C11">
+        <v>23783</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
       <c r="E11">
         <v>268235</v>
       </c>
@@ -16597,6 +19690,12 @@
       <c r="B12">
         <v>355</v>
       </c>
+      <c r="C12">
+        <v>30657</v>
+      </c>
+      <c r="D12">
+        <v>174</v>
+      </c>
       <c r="E12">
         <v>344050</v>
       </c>
@@ -16617,6 +19716,12 @@
       <c r="B13">
         <v>603</v>
       </c>
+      <c r="C13">
+        <v>42531</v>
+      </c>
+      <c r="D13">
+        <v>205</v>
+      </c>
       <c r="E13">
         <v>419418</v>
       </c>
@@ -16637,6 +19742,12 @@
       <c r="B14">
         <v>528</v>
       </c>
+      <c r="C14">
+        <v>59837</v>
+      </c>
+      <c r="D14">
+        <v>246</v>
+      </c>
       <c r="E14">
         <v>491657</v>
       </c>
@@ -16657,6 +19768,12 @@
       <c r="B15">
         <v>479</v>
       </c>
+      <c r="C15">
+        <v>76681</v>
+      </c>
+      <c r="D15">
+        <v>307</v>
+      </c>
       <c r="E15">
         <v>568152</v>
       </c>
@@ -16677,6 +19794,12 @@
       <c r="B16">
         <v>724</v>
       </c>
+      <c r="C16">
+        <v>94041</v>
+      </c>
+      <c r="D16">
+        <v>369</v>
+      </c>
       <c r="E16">
         <v>635310</v>
       </c>
@@ -16697,6 +19820,12 @@
       <c r="B17">
         <v>644</v>
       </c>
+      <c r="C17">
+        <v>111701</v>
+      </c>
+      <c r="D17">
+        <v>430</v>
+      </c>
       <c r="E17">
         <v>695405</v>
       </c>
@@ -16717,6 +19846,12 @@
       <c r="B18">
         <v>670</v>
       </c>
+      <c r="C18">
+        <v>118136</v>
+      </c>
+      <c r="D18">
+        <v>492</v>
+      </c>
       <c r="E18">
         <v>753900</v>
       </c>
@@ -16737,6 +19872,12 @@
       <c r="B19">
         <v>692</v>
       </c>
+      <c r="C19">
+        <v>136738</v>
+      </c>
+      <c r="D19">
+        <v>113</v>
+      </c>
       <c r="E19">
         <v>821827</v>
       </c>
@@ -16757,6 +19898,12 @@
       <c r="B20">
         <v>765</v>
       </c>
+      <c r="C20">
+        <v>157428</v>
+      </c>
+      <c r="D20">
+        <v>170</v>
+      </c>
       <c r="E20">
         <v>888826</v>
       </c>
@@ -16777,6 +19924,12 @@
       <c r="B21">
         <v>981</v>
       </c>
+      <c r="C21">
+        <v>178522</v>
+      </c>
+      <c r="D21">
+        <v>246</v>
+      </c>
       <c r="E21">
         <v>960910</v>
       </c>
@@ -16797,6 +19950,12 @@
       <c r="B22">
         <v>1079</v>
       </c>
+      <c r="C22">
+        <v>199917</v>
+      </c>
+      <c r="D22">
+        <v>323</v>
+      </c>
       <c r="E22">
         <v>1029409</v>
       </c>
@@ -16817,6 +19976,12 @@
       <c r="B23">
         <v>1054</v>
       </c>
+      <c r="C23">
+        <v>223579</v>
+      </c>
+      <c r="D23">
+        <v>399</v>
+      </c>
       <c r="E23">
         <v>1099000</v>
       </c>
@@ -16837,6 +20002,12 @@
       <c r="B24">
         <v>1011</v>
       </c>
+      <c r="C24">
+        <v>246606</v>
+      </c>
+      <c r="D24">
+        <v>485</v>
+      </c>
       <c r="E24">
         <v>1164663</v>
       </c>
@@ -16857,6 +20028,12 @@
       <c r="B25">
         <v>1074</v>
       </c>
+      <c r="C25">
+        <v>259577</v>
+      </c>
+      <c r="D25">
+        <v>566</v>
+      </c>
       <c r="E25">
         <v>1231084</v>
       </c>
@@ -16877,6 +20054,12 @@
       <c r="B26">
         <v>1138</v>
       </c>
+      <c r="C26">
+        <v>269628</v>
+      </c>
+      <c r="D26">
+        <v>242</v>
+      </c>
       <c r="E26">
         <v>1291030</v>
       </c>
@@ -16897,6 +20080,12 @@
       <c r="B27">
         <v>1213</v>
       </c>
+      <c r="C27">
+        <v>280116</v>
+      </c>
+      <c r="D27">
+        <v>261</v>
+      </c>
       <c r="E27">
         <v>1352075</v>
       </c>
@@ -16917,6 +20106,12 @@
       <c r="B28">
         <v>1492</v>
       </c>
+      <c r="C28">
+        <v>290626</v>
+      </c>
+      <c r="D28">
+        <v>300</v>
+      </c>
       <c r="E28">
         <v>1418877</v>
       </c>
@@ -16937,6 +20132,12 @@
       <c r="B29">
         <v>1444</v>
       </c>
+      <c r="C29">
+        <v>301216</v>
+      </c>
+      <c r="D29">
+        <v>339</v>
+      </c>
       <c r="E29">
         <v>1491518</v>
       </c>
@@ -16957,6 +20158,12 @@
       <c r="B30">
         <v>1435</v>
       </c>
+      <c r="C30">
+        <v>312359</v>
+      </c>
+      <c r="D30">
+        <v>378</v>
+      </c>
       <c r="E30">
         <v>1567372</v>
       </c>
@@ -16977,6 +20184,12 @@
       <c r="B31">
         <v>1444</v>
       </c>
+      <c r="C31">
+        <v>324321</v>
+      </c>
+      <c r="D31">
+        <v>417</v>
+      </c>
       <c r="E31">
         <v>1636376</v>
       </c>
@@ -16997,6 +20210,12 @@
       <c r="B32">
         <v>1520</v>
       </c>
+      <c r="C32">
+        <v>336305</v>
+      </c>
+      <c r="D32">
+        <v>456</v>
+      </c>
       <c r="E32">
         <v>1708115</v>
       </c>
@@ -17017,6 +20236,12 @@
       <c r="B33">
         <v>1596</v>
       </c>
+      <c r="C33">
+        <v>347829</v>
+      </c>
+      <c r="D33">
+        <v>495</v>
+      </c>
       <c r="E33">
         <v>1773967</v>
       </c>
@@ -17037,6 +20262,12 @@
       <c r="B34">
         <v>1673</v>
       </c>
+      <c r="C34">
+        <v>359714</v>
+      </c>
+      <c r="D34">
+        <v>554</v>
+      </c>
       <c r="E34">
         <v>1849240</v>
       </c>
@@ -17057,6 +20288,12 @@
       <c r="B35">
         <v>1749</v>
       </c>
+      <c r="C35">
+        <v>376326</v>
+      </c>
+      <c r="D35">
+        <v>593</v>
+      </c>
       <c r="E35">
         <v>1923825</v>
       </c>
@@ -17077,6 +20314,12 @@
       <c r="B36">
         <v>1826</v>
       </c>
+      <c r="C36">
+        <v>399535</v>
+      </c>
+      <c r="D36">
+        <v>651</v>
+      </c>
       <c r="E36">
         <v>2002905</v>
       </c>
@@ -17097,6 +20340,12 @@
       <c r="B37">
         <v>2153</v>
       </c>
+      <c r="C37">
+        <v>422561</v>
+      </c>
+      <c r="D37">
+        <v>729</v>
+      </c>
       <c r="E37">
         <v>2078533</v>
       </c>
@@ -17117,6 +20366,12 @@
       <c r="B38">
         <v>2130</v>
       </c>
+      <c r="C38">
+        <v>441877</v>
+      </c>
+      <c r="D38">
+        <v>807</v>
+      </c>
       <c r="E38">
         <v>2154100</v>
       </c>
@@ -17137,6 +20392,12 @@
       <c r="B39">
         <v>2230</v>
       </c>
+      <c r="C39">
+        <v>460348</v>
+      </c>
+      <c r="D39">
+        <v>885</v>
+      </c>
       <c r="E39">
         <v>2231221</v>
       </c>
@@ -17157,6 +20418,12 @@
       <c r="B40">
         <v>2283</v>
       </c>
+      <c r="C40">
+        <v>478123</v>
+      </c>
+      <c r="D40">
+        <v>944</v>
+      </c>
       <c r="E40">
         <v>2308754</v>
       </c>
@@ -17177,6 +20444,12 @@
       <c r="B41">
         <v>2328</v>
       </c>
+      <c r="C41">
+        <v>496451</v>
+      </c>
+      <c r="D41">
+        <v>1022</v>
+      </c>
       <c r="E41">
         <v>2383833</v>
       </c>
@@ -17197,6 +20470,12 @@
       <c r="B42">
         <v>2314</v>
       </c>
+      <c r="C42">
+        <v>514537</v>
+      </c>
+      <c r="D42">
+        <v>1080</v>
+      </c>
       <c r="E42">
         <v>2455290</v>
       </c>
@@ -17217,6 +20496,12 @@
       <c r="B43">
         <v>2313</v>
       </c>
+      <c r="C43">
+        <v>533167</v>
+      </c>
+      <c r="D43">
+        <v>1138</v>
+      </c>
       <c r="E43">
         <v>2524169</v>
       </c>
@@ -17237,6 +20522,12 @@
       <c r="B44">
         <v>2362</v>
       </c>
+      <c r="C44">
+        <v>543898</v>
+      </c>
+      <c r="D44">
+        <v>1216</v>
+      </c>
       <c r="E44">
         <v>2597739</v>
       </c>
@@ -17257,6 +20548,12 @@
       <c r="B45">
         <v>2439</v>
       </c>
+      <c r="C45">
+        <v>564701</v>
+      </c>
+      <c r="D45">
+        <v>475</v>
+      </c>
       <c r="E45">
         <v>2669763</v>
       </c>
@@ -17277,6 +20574,12 @@
       <c r="B46">
         <v>2772</v>
       </c>
+      <c r="C46">
+        <v>582559</v>
+      </c>
+      <c r="D46">
+        <v>535</v>
+      </c>
       <c r="E46">
         <v>2749046</v>
       </c>
@@ -17297,6 +20600,12 @@
       <c r="B47">
         <v>2822</v>
       </c>
+      <c r="C47">
+        <v>596154</v>
+      </c>
+      <c r="D47">
+        <v>614</v>
+      </c>
       <c r="E47">
         <v>2824375</v>
       </c>
@@ -17317,6 +20626,12 @@
       <c r="B48">
         <v>2761</v>
       </c>
+      <c r="C48">
+        <v>609345</v>
+      </c>
+      <c r="D48">
+        <v>653</v>
+      </c>
       <c r="E48">
         <v>2899910</v>
       </c>
@@ -17337,6 +20652,12 @@
       <c r="B49">
         <v>2812</v>
       </c>
+      <c r="C49">
+        <v>622642</v>
+      </c>
+      <c r="D49">
+        <v>693</v>
+      </c>
       <c r="E49">
         <v>2967754</v>
       </c>
@@ -17357,6 +20678,12 @@
       <c r="B50">
         <v>2821</v>
       </c>
+      <c r="C50">
+        <v>635851</v>
+      </c>
+      <c r="D50">
+        <v>752</v>
+      </c>
       <c r="E50">
         <v>3037142</v>
       </c>
@@ -17377,6 +20704,12 @@
       <c r="B51">
         <v>2821</v>
       </c>
+      <c r="C51">
+        <v>653504</v>
+      </c>
+      <c r="D51">
+        <v>792</v>
+      </c>
       <c r="E51">
         <v>3099751</v>
       </c>
@@ -17397,6 +20730,12 @@
       <c r="B52">
         <v>2897</v>
       </c>
+      <c r="C52">
+        <v>676759</v>
+      </c>
+      <c r="D52">
+        <v>851</v>
+      </c>
       <c r="E52">
         <v>3171729</v>
       </c>
@@ -17417,6 +20756,12 @@
       <c r="B53">
         <v>2973</v>
       </c>
+      <c r="C53">
+        <v>700381</v>
+      </c>
+      <c r="D53">
+        <v>931</v>
+      </c>
       <c r="E53">
         <v>3230237</v>
       </c>
@@ -17437,6 +20782,12 @@
       <c r="B54">
         <v>3049</v>
       </c>
+      <c r="C54">
+        <v>723467</v>
+      </c>
+      <c r="D54">
+        <v>1030</v>
+      </c>
       <c r="E54">
         <v>3303026</v>
       </c>
@@ -17457,6 +20808,12 @@
       <c r="B55">
         <v>3363</v>
       </c>
+      <c r="C55">
+        <v>746976</v>
+      </c>
+      <c r="D55">
+        <v>1109</v>
+      </c>
       <c r="E55">
         <v>3377831</v>
       </c>
@@ -17477,6 +20834,12 @@
       <c r="B56">
         <v>3356</v>
       </c>
+      <c r="C56">
+        <v>770150</v>
+      </c>
+      <c r="D56">
+        <v>1188</v>
+      </c>
       <c r="E56">
         <v>3453928</v>
       </c>
@@ -17497,6 +20860,12 @@
       <c r="B57">
         <v>3380</v>
       </c>
+      <c r="C57">
+        <v>794172</v>
+      </c>
+      <c r="D57">
+        <v>1267</v>
+      </c>
       <c r="E57">
         <v>3531978</v>
       </c>
@@ -17517,6 +20886,12 @@
       <c r="B58">
         <v>3407</v>
       </c>
+      <c r="C58">
+        <v>817815</v>
+      </c>
+      <c r="D58">
+        <v>1346</v>
+      </c>
       <c r="E58">
         <v>3600937</v>
       </c>
@@ -17537,6 +20912,12 @@
       <c r="B59">
         <v>3438</v>
       </c>
+      <c r="C59">
+        <v>831843</v>
+      </c>
+      <c r="D59">
+        <v>1445</v>
+      </c>
       <c r="E59">
         <v>3668891</v>
       </c>
@@ -17557,6 +20938,12 @@
       <c r="B60">
         <v>3433</v>
       </c>
+      <c r="C60">
+        <v>842352</v>
+      </c>
+      <c r="D60">
+        <v>730</v>
+      </c>
       <c r="E60">
         <v>3738063</v>
       </c>
@@ -17577,6 +20964,12 @@
       <c r="B61">
         <v>3509</v>
       </c>
+      <c r="C61">
+        <v>852764</v>
+      </c>
+      <c r="D61">
+        <v>730</v>
+      </c>
       <c r="E61">
         <v>3802026</v>
       </c>
@@ -17597,6 +20990,12 @@
       <c r="B62">
         <v>3585</v>
       </c>
+      <c r="C62">
+        <v>863190</v>
+      </c>
+      <c r="D62">
+        <v>770</v>
+      </c>
       <c r="E62">
         <v>3868414</v>
       </c>
@@ -17617,6 +21016,12 @@
       <c r="B63">
         <v>3661</v>
       </c>
+      <c r="C63">
+        <v>873902</v>
+      </c>
+      <c r="D63">
+        <v>810</v>
+      </c>
       <c r="E63">
         <v>3944551</v>
       </c>
@@ -17637,6 +21042,12 @@
       <c r="B64">
         <v>3738</v>
       </c>
+      <c r="C64">
+        <v>884441</v>
+      </c>
+      <c r="D64">
+        <v>850</v>
+      </c>
       <c r="E64">
         <v>4020809</v>
       </c>
@@ -17657,6 +21068,12 @@
       <c r="B65">
         <v>4025</v>
       </c>
+      <c r="C65">
+        <v>895115</v>
+      </c>
+      <c r="D65">
+        <v>890</v>
+      </c>
       <c r="E65">
         <v>4095507</v>
       </c>
@@ -17677,6 +21094,12 @@
       <c r="B66">
         <v>4082</v>
       </c>
+      <c r="C66">
+        <v>906754</v>
+      </c>
+      <c r="D66">
+        <v>951</v>
+      </c>
       <c r="E66">
         <v>4165651</v>
       </c>
@@ -17697,6 +21120,12 @@
       <c r="B67">
         <v>4027</v>
       </c>
+      <c r="C67">
+        <v>929256</v>
+      </c>
+      <c r="D67">
+        <v>991</v>
+      </c>
       <c r="E67">
         <v>4228191</v>
       </c>
@@ -17717,6 +21146,12 @@
       <c r="B68">
         <v>3969</v>
       </c>
+      <c r="C68">
+        <v>952490</v>
+      </c>
+      <c r="D68">
+        <v>1091</v>
+      </c>
       <c r="E68">
         <v>4286669</v>
       </c>
@@ -17737,6 +21172,12 @@
       <c r="B69">
         <v>4260</v>
       </c>
+      <c r="C69">
+        <v>975879</v>
+      </c>
+      <c r="D69">
+        <v>1171</v>
+      </c>
       <c r="E69">
         <v>4346276</v>
       </c>
@@ -17757,6 +21198,12 @@
       <c r="B70">
         <v>4256</v>
       </c>
+      <c r="C70">
+        <v>999600</v>
+      </c>
+      <c r="D70">
+        <v>1251</v>
+      </c>
       <c r="E70">
         <v>4414448</v>
       </c>
@@ -17777,6 +21224,12 @@
       <c r="B71">
         <v>4214</v>
       </c>
+      <c r="C71">
+        <v>1022799</v>
+      </c>
+      <c r="D71">
+        <v>1331</v>
+      </c>
       <c r="E71">
         <v>4491992</v>
       </c>
@@ -17797,6 +21250,12 @@
       <c r="B72">
         <v>4198</v>
       </c>
+      <c r="C72">
+        <v>1046394</v>
+      </c>
+      <c r="D72">
+        <v>1411</v>
+      </c>
       <c r="E72">
         <v>4567731</v>
       </c>
@@ -17817,6 +21276,12 @@
       <c r="B73">
         <v>4275</v>
       </c>
+      <c r="C73">
+        <v>1070554</v>
+      </c>
+      <c r="D73">
+        <v>1531</v>
+      </c>
       <c r="E73">
         <v>4643647</v>
       </c>
@@ -17837,6 +21302,12 @@
       <c r="B74">
         <v>4581</v>
       </c>
+      <c r="C74">
+        <v>1094150</v>
+      </c>
+      <c r="D74">
+        <v>1611</v>
+      </c>
       <c r="E74">
         <v>4719558</v>
       </c>
@@ -17857,6 +21328,12 @@
       <c r="B75">
         <v>4444</v>
       </c>
+      <c r="C75">
+        <v>1117642</v>
+      </c>
+      <c r="D75">
+        <v>1691</v>
+      </c>
       <c r="E75">
         <v>4799655</v>
       </c>
@@ -17877,6 +21354,12 @@
       <c r="B76">
         <v>4428</v>
       </c>
+      <c r="C76">
+        <v>1140922</v>
+      </c>
+      <c r="D76">
+        <v>1771</v>
+      </c>
       <c r="E76">
         <v>4876757</v>
       </c>
@@ -17897,6 +21380,12 @@
       <c r="B77">
         <v>4505</v>
       </c>
+      <c r="C77">
+        <v>1162156</v>
+      </c>
+      <c r="D77">
+        <v>1851</v>
+      </c>
       <c r="E77">
         <v>4956024</v>
       </c>
@@ -17917,6 +21406,12 @@
       <c r="B78">
         <v>4808</v>
       </c>
+      <c r="C78">
+        <v>1181030</v>
+      </c>
+      <c r="D78">
+        <v>1931</v>
+      </c>
       <c r="E78">
         <v>5033125</v>
       </c>
@@ -17937,6 +21432,12 @@
       <c r="B79">
         <v>4724</v>
       </c>
+      <c r="C79">
+        <v>1199409</v>
+      </c>
+      <c r="D79">
+        <v>1971</v>
+      </c>
       <c r="E79">
         <v>5111189</v>
       </c>
@@ -17957,6 +21458,12 @@
       <c r="B80">
         <v>4658</v>
       </c>
+      <c r="C80">
+        <v>1218012</v>
+      </c>
+      <c r="D80">
+        <v>2052</v>
+      </c>
       <c r="E80">
         <v>5183581</v>
       </c>
@@ -17977,6 +21484,12 @@
       <c r="B81">
         <v>4734</v>
       </c>
+      <c r="C81">
+        <v>1236583</v>
+      </c>
+      <c r="D81">
+        <v>2132</v>
+      </c>
       <c r="E81">
         <v>5261344</v>
       </c>
@@ -17997,6 +21510,12 @@
       <c r="B82">
         <v>4768</v>
       </c>
+      <c r="C82">
+        <v>1255161</v>
+      </c>
+      <c r="D82">
+        <v>2172</v>
+      </c>
       <c r="E82">
         <v>5337885</v>
       </c>
@@ -18017,6 +21536,12 @@
       <c r="B83">
         <v>4844</v>
       </c>
+      <c r="C83">
+        <v>1273768</v>
+      </c>
+      <c r="D83">
+        <v>2252</v>
+      </c>
       <c r="E83">
         <v>5412925</v>
       </c>
@@ -18037,6 +21562,12 @@
       <c r="B84">
         <v>4921</v>
       </c>
+      <c r="C84">
+        <v>1292372</v>
+      </c>
+      <c r="D84">
+        <v>2332</v>
+      </c>
       <c r="E84">
         <v>5487523</v>
       </c>
@@ -18057,6 +21588,12 @@
       <c r="B85">
         <v>5039</v>
       </c>
+      <c r="C85">
+        <v>1311009</v>
+      </c>
+      <c r="D85">
+        <v>2372</v>
+      </c>
       <c r="E85">
         <v>5561819</v>
       </c>
@@ -18077,6 +21614,12 @@
       <c r="B86">
         <v>5118</v>
       </c>
+      <c r="C86">
+        <v>1329708</v>
+      </c>
+      <c r="D86">
+        <v>2452</v>
+      </c>
       <c r="E86">
         <v>5635926</v>
       </c>
@@ -18097,6 +21640,12 @@
       <c r="B87">
         <v>5201</v>
       </c>
+      <c r="C87">
+        <v>1348474</v>
+      </c>
+      <c r="D87">
+        <v>2532</v>
+      </c>
       <c r="E87">
         <v>5711269</v>
       </c>
@@ -18117,6 +21666,12 @@
       <c r="B88">
         <v>5090</v>
       </c>
+      <c r="C88">
+        <v>1366928</v>
+      </c>
+      <c r="D88">
+        <v>2572</v>
+      </c>
       <c r="E88">
         <v>5788935</v>
       </c>
@@ -18137,6 +21692,12 @@
       <c r="B89">
         <v>5106</v>
       </c>
+      <c r="C89">
+        <v>1385598</v>
+      </c>
+      <c r="D89">
+        <v>2652</v>
+      </c>
       <c r="E89">
         <v>5864025</v>
       </c>
@@ -18157,6 +21718,12 @@
       <c r="B90">
         <v>5111</v>
       </c>
+      <c r="C90">
+        <v>1395545</v>
+      </c>
+      <c r="D90">
+        <v>2732</v>
+      </c>
       <c r="E90">
         <v>5940151</v>
       </c>
@@ -18177,6 +21744,12 @@
       <c r="B91">
         <v>5187</v>
       </c>
+      <c r="C91">
+        <v>1406223</v>
+      </c>
+      <c r="D91">
+        <v>1190</v>
+      </c>
       <c r="E91">
         <v>6016577</v>
       </c>
@@ -18197,6 +21770,12 @@
       <c r="B92">
         <v>5300</v>
       </c>
+      <c r="C92">
+        <v>1416788</v>
+      </c>
+      <c r="D92">
+        <v>1190</v>
+      </c>
       <c r="E92">
         <v>6093558</v>
       </c>
@@ -18217,6 +21796,12 @@
       <c r="B93">
         <v>5264</v>
       </c>
+      <c r="C93">
+        <v>1427452</v>
+      </c>
+      <c r="D93">
+        <v>1230</v>
+      </c>
       <c r="E93">
         <v>6169018</v>
       </c>
@@ -18237,6 +21822,12 @@
       <c r="B94">
         <v>5567</v>
       </c>
+      <c r="C94">
+        <v>1438109</v>
+      </c>
+      <c r="D94">
+        <v>1270</v>
+      </c>
       <c r="E94">
         <v>6243264</v>
       </c>
@@ -18257,6 +21848,12 @@
       <c r="B95">
         <v>5526</v>
       </c>
+      <c r="C95">
+        <v>1448569</v>
+      </c>
+      <c r="D95">
+        <v>1310</v>
+      </c>
       <c r="E95">
         <v>6318490</v>
       </c>
@@ -18277,6 +21874,12 @@
       <c r="B96">
         <v>5542</v>
       </c>
+      <c r="C96">
+        <v>1458805</v>
+      </c>
+      <c r="D96">
+        <v>1351</v>
+      </c>
       <c r="E96">
         <v>6390814</v>
       </c>
@@ -18290,7 +21893,13 @@
         <v>930</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>1469297</v>
+      </c>
+      <c r="D97">
+        <v>1391</v>
+      </c>
       <c r="E97">
         <v>6463809</v>
       </c>
@@ -18304,7 +21913,13 @@
         <v>993</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>1479866</v>
+      </c>
+      <c r="D98">
+        <v>1431</v>
+      </c>
       <c r="E98">
         <v>6537193</v>
       </c>
@@ -18318,7 +21933,13 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>1492444</v>
+      </c>
+      <c r="D99">
+        <v>1471</v>
+      </c>
       <c r="E99">
         <v>6613338</v>
       </c>
@@ -18332,7 +21953,13 @@
         <v>713</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>1515601</v>
+      </c>
+      <c r="D100">
+        <v>1511</v>
+      </c>
       <c r="E100">
         <v>6686396</v>
       </c>
@@ -18346,7 +21973,13 @@
         <v>754</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>1538241</v>
+      </c>
+      <c r="D101">
+        <v>1592</v>
+      </c>
       <c r="E101">
         <v>6759517</v>
       </c>
@@ -18360,7 +21993,13 @@
         <v>812</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>1561122</v>
+      </c>
+      <c r="D102">
+        <v>1672</v>
+      </c>
       <c r="E102">
         <v>6833185</v>
       </c>
@@ -18374,7 +22013,13 @@
         <v>865</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>1584486</v>
+      </c>
+      <c r="D103">
+        <v>1753</v>
+      </c>
       <c r="E103">
         <v>6909203</v>
       </c>
@@ -18388,7 +22033,13 @@
         <v>917</v>
       </c>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>1607631</v>
+      </c>
+      <c r="D104">
+        <v>1833</v>
+      </c>
       <c r="E104">
         <v>6981916</v>
       </c>
@@ -18402,7 +22053,13 @@
         <v>967</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>1631024</v>
+      </c>
+      <c r="D105">
+        <v>1913</v>
+      </c>
       <c r="E105">
         <v>7055212</v>
       </c>
@@ -18416,7 +22073,13 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>1654267</v>
+      </c>
+      <c r="D106">
+        <v>1994</v>
+      </c>
       <c r="E106">
         <v>7130077</v>
       </c>
@@ -18430,7 +22093,13 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>1677720</v>
+      </c>
+      <c r="D107">
+        <v>2074</v>
+      </c>
       <c r="E107">
         <v>7206263</v>
       </c>
@@ -18444,7 +22113,13 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>1701541</v>
+      </c>
+      <c r="D108">
+        <v>2195</v>
+      </c>
       <c r="E108">
         <v>7281082</v>
       </c>
@@ -18458,7 +22133,13 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>1724893</v>
+      </c>
+      <c r="D109">
+        <v>2275</v>
+      </c>
       <c r="E109">
         <v>7357365</v>
       </c>
@@ -18472,7 +22153,13 @@
         <v>794</v>
       </c>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>1747994</v>
+      </c>
+      <c r="D110">
+        <v>2355</v>
+      </c>
       <c r="E110">
         <v>7432940</v>
       </c>
@@ -18486,7 +22173,13 @@
         <v>846</v>
       </c>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>1770869</v>
+      </c>
+      <c r="D111">
+        <v>2436</v>
+      </c>
       <c r="E111">
         <v>7510930</v>
       </c>
@@ -18500,7 +22193,13 @@
         <v>898</v>
       </c>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>1794026</v>
+      </c>
+      <c r="D112">
+        <v>2516</v>
+      </c>
       <c r="E112">
         <v>7585348</v>
       </c>
@@ -18514,7 +22213,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>1817401</v>
+      </c>
+      <c r="D113">
+        <v>2596</v>
+      </c>
       <c r="E113">
         <v>7662466</v>
       </c>
@@ -18528,7 +22233,13 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>1840703</v>
+      </c>
+      <c r="D114">
+        <v>2677</v>
+      </c>
       <c r="E114">
         <v>7739742</v>
       </c>
@@ -18542,7 +22253,13 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>1859896</v>
+      </c>
+      <c r="D115">
+        <v>2757</v>
+      </c>
       <c r="E115">
         <v>7818234</v>
       </c>
@@ -18556,7 +22273,13 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>1883073</v>
+      </c>
+      <c r="D116">
+        <v>2878</v>
+      </c>
       <c r="E116">
         <v>7894953</v>
       </c>
@@ -18570,7 +22293,13 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>1905906</v>
+      </c>
+      <c r="D117">
+        <v>2958</v>
+      </c>
       <c r="E117">
         <v>7969876</v>
       </c>
@@ -18584,7 +22313,13 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>1928277</v>
+      </c>
+      <c r="D118">
+        <v>3038</v>
+      </c>
       <c r="E118">
         <v>8044690</v>
       </c>
@@ -18598,7 +22333,13 @@
         <v>871</v>
       </c>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>1951419</v>
+      </c>
+      <c r="D119">
+        <v>3119</v>
+      </c>
       <c r="E119">
         <v>8120669</v>
       </c>
@@ -18612,7 +22353,13 @@
         <v>922</v>
       </c>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>1960183</v>
+      </c>
+      <c r="D120">
+        <v>3196</v>
+      </c>
       <c r="E120">
         <v>8197633</v>
       </c>
@@ -18626,7 +22373,13 @@
         <v>978</v>
       </c>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>1977917</v>
+      </c>
+      <c r="D121">
+        <v>1697</v>
+      </c>
       <c r="E121">
         <v>8275984</v>
       </c>
@@ -18640,7 +22393,13 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>1995902</v>
+      </c>
+      <c r="D122">
+        <v>1748</v>
+      </c>
       <c r="E122">
         <v>8353571</v>
       </c>
@@ -18654,7 +22413,13 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>2013037</v>
+      </c>
+      <c r="D123">
+        <v>1799</v>
+      </c>
       <c r="E123">
         <v>8431292</v>
       </c>
@@ -18668,7 +22433,13 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>2030379</v>
+      </c>
+      <c r="D124">
+        <v>1851</v>
+      </c>
       <c r="E124">
         <v>8507554</v>
       </c>
@@ -18682,7 +22453,13 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>2050169</v>
+      </c>
+      <c r="D125">
+        <v>1902</v>
+      </c>
       <c r="E125">
         <v>8583281</v>
       </c>
@@ -18696,7 +22473,13 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>2072619</v>
+      </c>
+      <c r="D126">
+        <v>2004</v>
+      </c>
       <c r="E126">
         <v>8660618</v>
       </c>
@@ -18710,7 +22493,13 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>2095537</v>
+      </c>
+      <c r="D127">
+        <v>2055</v>
+      </c>
       <c r="E127">
         <v>8733928</v>
       </c>
@@ -18724,7 +22513,13 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>2118052</v>
+      </c>
+      <c r="D128">
+        <v>2158</v>
+      </c>
       <c r="E128">
         <v>8808557</v>
       </c>
@@ -18738,7 +22533,13 @@
         <v>949</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>2140698</v>
+      </c>
+      <c r="D129">
+        <v>2260</v>
+      </c>
       <c r="E129">
         <v>8887275</v>
       </c>
@@ -18752,7 +22553,13 @@
         <v>999</v>
       </c>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>2164241</v>
+      </c>
+      <c r="D130">
+        <v>2311</v>
+      </c>
       <c r="E130">
         <v>8964847</v>
       </c>
@@ -18766,7 +22573,13 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>2187304</v>
+      </c>
+      <c r="D131">
+        <v>2413</v>
+      </c>
       <c r="E131">
         <v>9041407</v>
       </c>
@@ -18780,7 +22593,13 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>2210511</v>
+      </c>
+      <c r="D132">
+        <v>2465</v>
+      </c>
       <c r="E132">
         <v>9115820</v>
       </c>
@@ -18794,7 +22613,13 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>2233553</v>
+      </c>
+      <c r="D133">
+        <v>2567</v>
+      </c>
       <c r="E133">
         <v>9192498</v>
       </c>
@@ -18808,7 +22633,13 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>2257179</v>
+      </c>
+      <c r="D134">
+        <v>2669</v>
+      </c>
       <c r="E134">
         <v>9269514</v>
       </c>
@@ -18822,7 +22653,13 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>2279983</v>
+      </c>
+      <c r="D135">
+        <v>2720</v>
+      </c>
       <c r="E135">
         <v>9345951</v>
       </c>
@@ -18836,7 +22673,13 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>2303107</v>
+      </c>
+      <c r="D136">
+        <v>2823</v>
+      </c>
       <c r="E136">
         <v>9417440</v>
       </c>
@@ -18850,7 +22693,13 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>2326167</v>
+      </c>
+      <c r="D137">
+        <v>2874</v>
+      </c>
       <c r="E137">
         <v>9493558</v>
       </c>
@@ -18864,7 +22713,13 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>2349571</v>
+      </c>
+      <c r="D138">
+        <v>2976</v>
+      </c>
       <c r="E138">
         <v>9570466</v>
       </c>
@@ -18878,7 +22733,13 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>2372797</v>
+      </c>
+      <c r="D139">
+        <v>3079</v>
+      </c>
       <c r="E139">
         <v>9646350</v>
       </c>
@@ -18892,7 +22753,13 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>2395952</v>
+      </c>
+      <c r="D140">
+        <v>3130</v>
+      </c>
       <c r="E140">
         <v>9722051</v>
       </c>
@@ -18906,7 +22773,13 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>2419492</v>
+      </c>
+      <c r="D141">
+        <v>3232</v>
+      </c>
       <c r="E141">
         <v>9798320</v>
       </c>
@@ -18920,7 +22793,13 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>2442758</v>
+      </c>
+      <c r="D142">
+        <v>3335</v>
+      </c>
       <c r="E142">
         <v>9876117</v>
       </c>
@@ -18934,7 +22813,13 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>2466096</v>
+      </c>
+      <c r="D143">
+        <v>3386</v>
+      </c>
       <c r="E143">
         <v>9951063</v>
       </c>
@@ -18948,7 +22833,13 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>2488973</v>
+      </c>
+      <c r="D144">
+        <v>3488</v>
+      </c>
       <c r="E144">
         <v>10027011</v>
       </c>
@@ -18962,7 +22853,13 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>2511857</v>
+      </c>
+      <c r="D145">
+        <v>3539</v>
+      </c>
       <c r="E145">
         <v>10100984</v>
       </c>
@@ -18976,7 +22873,13 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>2534429</v>
+      </c>
+      <c r="D146">
+        <v>3642</v>
+      </c>
       <c r="E146">
         <v>10177793</v>
       </c>
@@ -18990,7 +22893,13 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>2557455</v>
+      </c>
+      <c r="D147">
+        <v>3744</v>
+      </c>
       <c r="E147">
         <v>10253576</v>
       </c>
@@ -19004,7 +22913,13 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>2580267</v>
+      </c>
+      <c r="D148">
+        <v>3795</v>
+      </c>
       <c r="E148">
         <v>10329614</v>
       </c>
@@ -19018,7 +22933,13 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>2598814</v>
+      </c>
+      <c r="D149">
+        <v>3897</v>
+      </c>
       <c r="E149">
         <v>10405315</v>
       </c>
@@ -19032,7 +22953,13 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>2616705</v>
+      </c>
+      <c r="D150">
+        <v>3949</v>
+      </c>
       <c r="E150">
         <v>10483527</v>
       </c>
@@ -19046,7 +22973,13 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>2634491</v>
+      </c>
+      <c r="D151">
+        <v>4000</v>
+      </c>
       <c r="E151">
         <v>10560389</v>
       </c>
@@ -19060,7 +22993,13 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>2652770</v>
+      </c>
+      <c r="D152">
+        <v>4051</v>
+      </c>
       <c r="E152">
         <v>10636504</v>
       </c>
@@ -19074,7 +23013,13 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>2671086</v>
+      </c>
+      <c r="D153">
+        <v>4153</v>
+      </c>
       <c r="E153">
         <v>10713990</v>
       </c>
@@ -19088,7 +23033,13 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>2687150</v>
+      </c>
+      <c r="D154">
+        <v>4204</v>
+      </c>
       <c r="E154">
         <v>10791407</v>
       </c>
@@ -19102,7 +23053,13 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>2706818</v>
+      </c>
+      <c r="D155">
+        <v>2299</v>
+      </c>
       <c r="E155">
         <v>10869387</v>
       </c>
@@ -19116,7 +23073,13 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>2726529</v>
+      </c>
+      <c r="D156">
+        <v>2366</v>
+      </c>
       <c r="E156">
         <v>10943831</v>
       </c>
@@ -19130,7 +23093,13 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>2744417</v>
+      </c>
+      <c r="D157">
+        <v>2433</v>
+      </c>
       <c r="E157">
         <v>11005981</v>
       </c>
@@ -19144,7 +23113,13 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>2754720</v>
+      </c>
+      <c r="D158">
+        <v>2499</v>
+      </c>
       <c r="E158">
         <v>11067638</v>
       </c>
@@ -19158,7 +23133,13 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>2765223</v>
+      </c>
+      <c r="D159">
+        <v>2499</v>
+      </c>
       <c r="E159">
         <v>11124235</v>
       </c>
@@ -19172,7 +23153,13 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>2775573</v>
+      </c>
+      <c r="D160">
+        <v>2566</v>
+      </c>
       <c r="E160">
         <v>11196505</v>
       </c>
@@ -19186,7 +23173,13 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>2786069</v>
+      </c>
+      <c r="D161">
+        <v>2566</v>
+      </c>
       <c r="E161">
         <v>11272367</v>
       </c>
@@ -19200,7 +23193,13 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>2799751</v>
+      </c>
+      <c r="D162">
+        <v>2632</v>
+      </c>
       <c r="E162">
         <v>11348179</v>
       </c>
@@ -19214,7 +23213,13 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>2823240</v>
+      </c>
+      <c r="D163">
+        <v>2699</v>
+      </c>
       <c r="E163">
         <v>11422732</v>
       </c>
@@ -19228,7 +23233,13 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>2846472</v>
+      </c>
+      <c r="D164">
+        <v>2766</v>
+      </c>
       <c r="E164">
         <v>11500177</v>
       </c>
@@ -19242,7 +23253,13 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>2869409</v>
+      </c>
+      <c r="D165">
+        <v>2832</v>
+      </c>
       <c r="E165">
         <v>11565794</v>
       </c>
@@ -19256,7 +23273,13 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>2892485</v>
+      </c>
+      <c r="D166">
+        <v>2899</v>
+      </c>
       <c r="E166">
         <v>11641670</v>
       </c>
@@ -19270,7 +23293,13 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>2915131</v>
+      </c>
+      <c r="D167">
+        <v>2965</v>
+      </c>
       <c r="E167">
         <v>11716884</v>
       </c>
@@ -19284,7 +23313,13 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>2938679</v>
+      </c>
+      <c r="D168">
+        <v>3099</v>
+      </c>
       <c r="E168">
         <v>11791957</v>
       </c>
@@ -19298,7 +23333,13 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>2962062</v>
+      </c>
+      <c r="D169">
+        <v>3165</v>
+      </c>
       <c r="E169">
         <v>11868568</v>
       </c>
@@ -19312,7 +23353,13 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>2985022</v>
+      </c>
+      <c r="D170">
+        <v>3232</v>
+      </c>
       <c r="E170">
         <v>11944808</v>
       </c>
@@ -19326,7 +23373,13 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>3008036</v>
+      </c>
+      <c r="D171">
+        <v>3298</v>
+      </c>
       <c r="E171">
         <v>12020220</v>
       </c>
@@ -19340,7 +23393,13 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>3030980</v>
+      </c>
+      <c r="D172">
+        <v>3432</v>
+      </c>
       <c r="E172">
         <v>12095861</v>
       </c>
@@ -19354,7 +23413,13 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>3054154</v>
+      </c>
+      <c r="D173">
+        <v>3498</v>
+      </c>
       <c r="E173">
         <v>12172728</v>
       </c>
@@ -19368,7 +23433,13 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>3077487</v>
+      </c>
+      <c r="D174">
+        <v>3565</v>
+      </c>
       <c r="E174">
         <v>12250871</v>
       </c>
@@ -19382,7 +23453,13 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>3100687</v>
+      </c>
+      <c r="D175">
+        <v>3631</v>
+      </c>
       <c r="E175">
         <v>12328260</v>
       </c>
@@ -19396,7 +23473,13 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>3123758</v>
+      </c>
+      <c r="D176">
+        <v>3764</v>
+      </c>
       <c r="E176">
         <v>12403640</v>
       </c>
@@ -19410,7 +23493,13 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>3146927</v>
+      </c>
+      <c r="D177">
+        <v>3831</v>
+      </c>
       <c r="E177">
         <v>12480657</v>
       </c>
@@ -19424,7 +23513,13 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>3169901</v>
+      </c>
+      <c r="D178">
+        <v>3898</v>
+      </c>
       <c r="E178">
         <v>12559363</v>
       </c>
@@ -19438,7 +23533,13 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>3192702</v>
+      </c>
+      <c r="D179">
+        <v>3964</v>
+      </c>
       <c r="E179">
         <v>12633875</v>
       </c>
@@ -19452,7 +23553,13 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>3215673</v>
+      </c>
+      <c r="D180">
+        <v>4031</v>
+      </c>
       <c r="E180">
         <v>12711235</v>
       </c>
@@ -19466,7 +23573,13 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>3239022</v>
+      </c>
+      <c r="D181">
+        <v>4164</v>
+      </c>
       <c r="E181">
         <v>12787801</v>
       </c>
@@ -19480,7 +23593,13 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>3261732</v>
+      </c>
+      <c r="D182">
+        <v>4231</v>
+      </c>
       <c r="E182">
         <v>12864520</v>
       </c>
@@ -19494,7 +23613,13 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>3284942</v>
+      </c>
+      <c r="D183">
+        <v>4297</v>
+      </c>
       <c r="E183">
         <v>12935597</v>
       </c>
@@ -19508,7 +23633,13 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>3308131</v>
+      </c>
+      <c r="D184">
+        <v>4364</v>
+      </c>
       <c r="E184">
         <v>13011939</v>
       </c>
@@ -19522,7 +23653,13 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>3331622</v>
+      </c>
+      <c r="D185">
+        <v>4497</v>
+      </c>
       <c r="E185">
         <v>13088327</v>
       </c>
@@ -19536,7 +23673,13 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>3354755</v>
+      </c>
+      <c r="D186">
+        <v>4564</v>
+      </c>
       <c r="E186">
         <v>13164759</v>
       </c>
@@ -19550,7 +23693,13 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>3377980</v>
+      </c>
+      <c r="D187">
+        <v>4630</v>
+      </c>
       <c r="E187">
         <v>13240430</v>
       </c>
@@ -19564,7 +23713,13 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>3401309</v>
+      </c>
+      <c r="D188">
+        <v>4697</v>
+      </c>
       <c r="E188">
         <v>13314989</v>
       </c>
@@ -19578,7 +23733,13 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="189" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>3423338</v>
+      </c>
+      <c r="D189">
+        <v>4830</v>
+      </c>
       <c r="E189">
         <v>13390307</v>
       </c>
@@ -19592,7 +23753,13 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>3441401</v>
+      </c>
+      <c r="D190">
+        <v>4897</v>
+      </c>
       <c r="E190">
         <v>13468527</v>
       </c>
@@ -19606,7 +23773,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E191">
         <v>13544652</v>
       </c>
@@ -19620,7 +23787,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E192">
         <v>13623343</v>
       </c>
@@ -22309,6 +26476,11 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D3:D190">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>D2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Complexity.xlsx
+++ b/Complexity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="20380" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="38080" yWindow="460" windowWidth="38400" windowHeight="20380" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2x2 Grid" sheetId="6" r:id="rId1"/>
@@ -87,10 +87,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,8 +155,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -158,10 +176,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -230,14 +260,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2x2</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Grid, Complexity vs Nodes Evaluated</a:t>
+              <a:t>2x2 Grid, Complexity vs Nodes Evaluated</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1166,7 +1192,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Complexity (Nodes Evalutated)</a:t>
+                  <a:t> Complexity (Nodes Evaluated)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3090,7 +3116,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Complexity (Nodes Evaluted)</a:t>
+                  <a:t> Complexity (Nodes Evaluated)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3647,6 +3673,24 @@
                 <c:pt idx="14">
                   <c:v>3.477998E6</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>401771.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.850497E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.525015E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0034696E7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.815947E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>826179.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4142,12 +4186,14 @@
         <c:crossAx val="386560288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="386560288"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16994,6 +17040,7 @@
     <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -18707,8 +18754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19255,8 +19302,12 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>401771</v>
+      </c>
+      <c r="F18" s="2">
+        <v>401771</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="6">
@@ -19275,8 +19326,12 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2">
+        <v>3850497</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3850497</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="6">
@@ -19295,8 +19350,12 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2">
+        <v>2525015</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2525015</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="6">
@@ -19315,8 +19374,12 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2">
+        <v>20034696</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20034696</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="6">
@@ -19335,8 +19398,12 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>3815947</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3815947</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="6">
@@ -19355,8 +19422,12 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>826179</v>
+      </c>
+      <c r="F23" s="2">
+        <v>826179</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="6">
@@ -19389,8 +19460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H518"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23942,6 +24013,10 @@
       </c>
     </row>
     <row r="203" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <f>MAX(F3:F202)</f>
+        <v>151</v>
+      </c>
       <c r="G203">
         <v>781810</v>
       </c>
@@ -26477,10 +26552,11 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D190">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>D2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>